--- a/target/test-classes/testdata/DataTest.xlsx
+++ b/target/test-classes/testdata/DataTest.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>email</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>admin123@example.com</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>vankhe</t>
   </si>
 </sst>
 </file>
@@ -108,7 +114,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -118,6 +124,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -399,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -411,85 +418,46 @@
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4">
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1">
-        <v>123456</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -497,7 +465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>

--- a/target/test-classes/testdata/DataTest.xlsx
+++ b/target/test-classes/testdata/DataTest.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="addNewCustomer" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>email</t>
   </si>
@@ -49,6 +50,63 @@
   </si>
   <si>
     <t>vankhe</t>
+  </si>
+  <si>
+    <t>LTD</t>
+  </si>
+  <si>
+    <t>companyName</t>
+  </si>
+  <si>
+    <t>Viettel</t>
+  </si>
+  <si>
+    <t>vatNumber</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>groups</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>zipCode</t>
+  </si>
+  <si>
+    <t>HBT</t>
+  </si>
+  <si>
+    <t>667735</t>
+  </si>
+  <si>
+    <t>0852741963</t>
+  </si>
+  <si>
+    <t>hbt.hn.com</t>
+  </si>
+  <si>
+    <t>khoinghia</t>
+  </si>
+  <si>
+    <t>Me Linh</t>
+  </si>
+  <si>
+    <t>Ha Noi</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
@@ -408,7 +466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -465,7 +523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -510,4 +568,121 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="6" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="1">
+        <v>28386</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>